--- a/Skillsets.xlsx
+++ b/Skillsets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D7657-CD29-4F60-9FC5-62E151649608}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C8DF9-A7C3-4B4E-B184-0737319F4DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94108416-7DA5-4E31-B1F3-D159934FD6B5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>Hand Seal</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Talisman</t>
   </si>
   <si>
-    <t>Enhancements</t>
-  </si>
-  <si>
     <t>Shikigami</t>
   </si>
   <si>
@@ -82,12 +79,6 @@
     <t>Improved compounding</t>
   </si>
   <si>
-    <t>Defense bonus</t>
-  </si>
-  <si>
-    <t>Attack bonus</t>
-  </si>
-  <si>
     <t>Control more shikigami</t>
   </si>
   <si>
@@ -112,12 +103,6 @@
     <t>Clairvoyance</t>
   </si>
   <si>
-    <t>Summoning rituals</t>
-  </si>
-  <si>
-    <t>Enhancing rituals</t>
-  </si>
-  <si>
     <t>Improve AoE spells</t>
   </si>
   <si>
@@ -133,15 +118,6 @@
     <t>Improve spirit manipulation</t>
   </si>
   <si>
-    <t>Increase spirit pool</t>
-  </si>
-  <si>
-    <t>Unarmed strike?</t>
-  </si>
-  <si>
-    <t>Spell focus</t>
-  </si>
-  <si>
     <t>Attribute focus</t>
   </si>
   <si>
@@ -163,9 +139,6 @@
     <t>Sneak Attack - attacking from stealth increases spell magnitude by +1 or +1 item level when attacking w/ weapon</t>
   </si>
   <si>
-    <t>Each time health damage is taken, gain a stack of rage. + 3 to damage per stack. Lasts til end of combat</t>
-  </si>
-  <si>
     <t>Add endurance score to the roll die of melee weapon attacks</t>
   </si>
   <si>
@@ -223,15 +196,6 @@
     <t>+ 1 magnitude to counterspelling</t>
   </si>
   <si>
-    <t>Improved bolster</t>
-  </si>
-  <si>
-    <t>Attacking from a certain direction</t>
-  </si>
-  <si>
-    <t>Attacks of opportunity</t>
-  </si>
-  <si>
     <t>Reduce the dodge bonus for attacks targetted at extremities by half</t>
   </si>
   <si>
@@ -256,13 +220,178 @@
     <t>Attacks from behind a target deal +4 damage</t>
   </si>
   <si>
-    <t>+ 4 damage with weapons</t>
-  </si>
-  <si>
-    <t>Can perform attacks of opportunity against knocked back enemies</t>
-  </si>
-  <si>
     <t>Knockback melee attackers when using the Full Dodge reaction.</t>
+  </si>
+  <si>
+    <t>Opportunist</t>
+  </si>
+  <si>
+    <t>Stacking hits</t>
+  </si>
+  <si>
+    <t>Enhancements (weapons)</t>
+  </si>
+  <si>
+    <t>Enhancements (defense)</t>
+  </si>
+  <si>
+    <t>Reduce dodge bonus on attacks to extremities</t>
+  </si>
+  <si>
+    <t>Deal +4 damage on follow up attacks</t>
+  </si>
+  <si>
+    <t>One extra attack per turn</t>
+  </si>
+  <si>
+    <t>Can deal attack of opportunity on knockbacked foes (Melee only)</t>
+  </si>
+  <si>
+    <t>Shield focus</t>
+  </si>
+  <si>
+    <t>Each time health damage is taken, gain a stack of rage. + 3 to damage per stack. Lasts until end of combat</t>
+  </si>
+  <si>
+    <t>Rituals</t>
+  </si>
+  <si>
+    <t>Spell/Weapon focus</t>
+  </si>
+  <si>
+    <t>Casting hand seal spells</t>
+  </si>
+  <si>
+    <t>Casting Talisman spells</t>
+  </si>
+  <si>
+    <t>Attack with weapons</t>
+  </si>
+  <si>
+    <t>Damage negated by defense</t>
+  </si>
+  <si>
+    <t>Command shikigami</t>
+  </si>
+  <si>
+    <t>Attribute check</t>
+  </si>
+  <si>
+    <t>Attribute Check</t>
+  </si>
+  <si>
+    <t>Deal an additional +10% damage when a weapon passive is active</t>
+  </si>
+  <si>
+    <t>Can choose to double the spirit cost of a weapon active to double its effect</t>
+  </si>
+  <si>
+    <t>Gain a stack of Prowess everytime you hit with a weapon. Gain +5% damage and +2% crit chance per stack (max 10). Lose a stack if an attack is dodged.</t>
+  </si>
+  <si>
+    <t>Foes that are facing you in melee get a -2 to dodge your attacks.</t>
+  </si>
+  <si>
+    <t>Gain the weapon ability Overwhelm. Overwhelm will trigger without cost if you deal more than 50 damage in a turn.</t>
+  </si>
+  <si>
+    <t>Overwhelm</t>
+  </si>
+  <si>
+    <t>Weapon Ability</t>
+  </si>
+  <si>
+    <t>10 Seals</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You activate an immensely intimidating spirit aura. If your current spirit is greater than the target's, the target is either excorsized (if it's a spirit creature) or loses the remaineder of their spirit. 
+If their spirit is still greater, then they lose their next turn instead. </t>
+  </si>
+  <si>
+    <t>20 Spirit</t>
+  </si>
+  <si>
+    <t>Barriers and seals</t>
+  </si>
+  <si>
+    <t>Embrace affliction/blessing</t>
+  </si>
+  <si>
+    <t>Support/bolster</t>
+  </si>
+  <si>
+    <t>Improve living spells</t>
+  </si>
+  <si>
+    <t>+1 to hand seal checks</t>
+  </si>
+  <si>
+    <t>Gain the ability to use a weapon attack on the same turn as casting with hand seals</t>
+  </si>
+  <si>
+    <t>Gain the spell Metronome. Whenever you continue to cast a hand seal spell on the following turn, it recieves +1 magnitude.</t>
+  </si>
+  <si>
+    <t>Metronome</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Metronome does not have a cost. Instead, the sequence of hand seals is repeated until you fail a hand seal. On a failed hand seal, the spell casts deal Xd4 damage where X is the number of seals completed before casting.</t>
+  </si>
+  <si>
+    <t>+1 hand seals per turn</t>
+  </si>
+  <si>
+    <t>Gain an unarmed strike weapon that does not count towards the item max. The weapon's passive ability gives +10ft movement and +1 dodge. The active ability is based on your blessing/affliction.</t>
+  </si>
+  <si>
+    <t>The unarmed strike passive also gives +2 spell/weapon damage and +2 spirit armor.</t>
+  </si>
+  <si>
+    <t>The active ability increases in potency</t>
+  </si>
+  <si>
+    <t>You become one with your affliction. The passive ability gives you a spirit avatar that encompasses your body and takes the form of your affliction creature. Gain their stats and abilities in addition to the orginal passive bonuses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn how to manage two handed casting so that you can cast two spells simultaneously. This allows for the unique combination of spell effects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example combinations: stealth + element = hidden spell trap
+bind + element = deals damage while channeled
+bind + barrier = fully bound target cannot cast
+bind + excorsize = bound while in area
+spirit man + bind = draining while channel
+spriti man + element = DoT that increases in magnitude </t>
+  </si>
+  <si>
+    <t>+1 total shikigami summons</t>
+  </si>
+  <si>
+    <t>By consuming a talisman, can change damage type of shikigami abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per turn, can use a shikigami to intercept an attack targeted at an ally. The shikigami must be next to the ally. </t>
+  </si>
+  <si>
+    <t>+ 1 total shikigami summons. Gain swarm control of shikigami. Swarm has two modes: Defense mode attaches each shikigami to an ally. The next attack at that ally is intercepted. Attack mode has the shikigami attack a target in sequence, gaining +1 magnitude for each consecutive attack.</t>
+  </si>
+  <si>
+    <t>shikigami attacks gain +1 magnitude and + 10% crit chance</t>
+  </si>
+  <si>
+    <t>shikigami gain +2 spirit armor and +10ft movement</t>
+  </si>
+  <si>
+    <t>shikigami gain the ability to dodge using your modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain the ability to overcast a shikigami. Pay an additional 50% spirit cost to summon. The summon gains +50% spirit pool, +1 spirit armor and +1 magnitude in addition to the bonuses above. </t>
   </si>
 </sst>
 </file>
@@ -298,16 +427,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,407 +755,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323A4BD3-C367-4F55-AFD6-27C708741604}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="43.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="47" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="37.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="47" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="D88" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="3" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D60" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A102:F102"/>
+  <mergeCells count="18">
+    <mergeCell ref="A103:F103"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A126:F126"/>
     <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A72:F72"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1031,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD8E546-FEBF-4703-B5FC-85F4A1C8F315}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,50 +1330,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Skillsets.xlsx
+++ b/Skillsets.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C8DF9-A7C3-4B4E-B184-0737319F4DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D031A7-6C89-41E9-BCF0-C803FB0A6CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94108416-7DA5-4E31-B1F3-D159934FD6B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Skills" sheetId="1" r:id="rId1"/>
+    <sheet name="Spells" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="168">
   <si>
     <t>Hand Seal</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Improve melee weapons</t>
   </si>
   <si>
-    <t>Improve range weapons</t>
-  </si>
-  <si>
     <t>Improve spirit manipulation</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Improve shikigami defense</t>
   </si>
   <si>
-    <t>Improve barriers and excorcism</t>
-  </si>
-  <si>
     <t>+1 dodge per turn</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
   </si>
   <si>
     <t>On the following turn, gain +10 movement. For attack that turn, add the distance moved to the attack damage.</t>
-  </si>
-  <si>
-    <t>+ 1 magnitude to counterspelling</t>
   </si>
   <si>
     <t>Reduce the dodge bonus for attacks targetted at extremities by half</t>
@@ -314,15 +305,9 @@
     <t>20 Spirit</t>
   </si>
   <si>
-    <t>Barriers and seals</t>
-  </si>
-  <si>
     <t>Embrace affliction/blessing</t>
   </si>
   <si>
-    <t>Support/bolster</t>
-  </si>
-  <si>
     <t>Improve living spells</t>
   </si>
   <si>
@@ -357,9 +342,6 @@
   </si>
   <si>
     <t>You become one with your affliction. The passive ability gives you a spirit avatar that encompasses your body and takes the form of your affliction creature. Gain their stats and abilities in addition to the orginal passive bonuses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn how to manage two handed casting so that you can cast two spells simultaneously. This allows for the unique combination of spell effects. </t>
   </si>
   <si>
     <t xml:space="preserve">Example combinations: stealth + element = hidden spell trap
@@ -392,6 +374,177 @@
   </si>
   <si>
     <t xml:space="preserve">Gain the ability to overcast a shikigami. Pay an additional 50% spirit cost to summon. The summon gains +50% spirit pool, +1 spirit armor and +1 magnitude in addition to the bonuses above. </t>
+  </si>
+  <si>
+    <t>Exorcism</t>
+  </si>
+  <si>
+    <t>Improve barriers/seals</t>
+  </si>
+  <si>
+    <t>When a foe dies, chose a new target. All living spells are transferred from the deceased to the new target.</t>
+  </si>
+  <si>
+    <t>When two hands are free, gain +2 hand seals per turn.</t>
+  </si>
+  <si>
+    <t>When using the counterspell reaction, can chose to cast a barrier spell in defence instead of countering. Barriers cast this way have +2 to cast checks.</t>
+  </si>
+  <si>
+    <t>Exorcism spells have +5ft radius</t>
+  </si>
+  <si>
+    <t>Area spells have +5ft radius</t>
+  </si>
+  <si>
+    <t>Your vision cone increases to 180 degrees</t>
+  </si>
+  <si>
+    <t>You can see the magnitude of a spell you are attempting to counter</t>
+  </si>
+  <si>
+    <t>Your vision cone increases to 360 degrees. +1 magnitude to counterspelling</t>
+  </si>
+  <si>
+    <t>On a critical sensing roll, your vision temporarily trascends time. For the next 3 turns, you automatically succeed dodge rolls, your counters gain +5 magnitude and your instructions to allies grant them all a +4 to dodge rolls</t>
+  </si>
+  <si>
+    <t>+ 1 magnitude to counterspelling. Can spend downtime doing readings to predict future events.</t>
+  </si>
+  <si>
+    <t>Once per turn, can make an intelligence check to transfer all living spells from one target to another.</t>
+  </si>
+  <si>
+    <t>+1 turn duration to living spells</t>
+  </si>
+  <si>
+    <t>If you cast a living spell is cast on an ally or self, the base damage is converted to 0. +1 turn duration on living spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose one spell or specifc weapon. That becomes your signature ability. Your signature spell/weapon has +20% crit chance </t>
+  </si>
+  <si>
+    <t>Choose one spell type (Area, Projectile, etc) or weapon range type (Ranged or Melee). Add +1 to damage rolls of that type.</t>
+  </si>
+  <si>
+    <t>Choose one damage type (Fire, Water, etc) or weapon type (Bow, Sword, etc). Attacks of that type gain +2 to base damage.</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Excorcism/unarmed attack</t>
+  </si>
+  <si>
+    <t>Concsecutive cast of same spell or crit</t>
+  </si>
+  <si>
+    <t>Attacks made by shikigami</t>
+  </si>
+  <si>
+    <t>Level up</t>
+  </si>
+  <si>
+    <t>Recover from injuries 1 week faster during downtime.</t>
+  </si>
+  <si>
+    <t>+1 spirit armor/physical armor when weilding a shield</t>
+  </si>
+  <si>
+    <t>Improve sensing/ranged weapons</t>
+  </si>
+  <si>
+    <t>When rolling a sensing check to inspect a target, gain +3 to check. Can gain more information from inspecting a target.</t>
+  </si>
+  <si>
+    <t>Whenever a turn is spend not attacking, the next attack made has +10% crit chance.</t>
+  </si>
+  <si>
+    <t>Using a sensing check to mark a target. The next attack of yours that hits the target deals additional damage equal to the roll result</t>
+  </si>
+  <si>
+    <t>Weapon attacks gain +1 base damage for every 5ft away from a target.</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Bolster</t>
+  </si>
+  <si>
+    <t>Elemental on hit?</t>
+  </si>
+  <si>
+    <t>+1 magnitude/item level when countering. When your counter exceeds the attack, the remainder of your attack hits the target.</t>
+  </si>
+  <si>
+    <t>Add your spirit armor to the magnitude of shield attacks</t>
+  </si>
+  <si>
+    <t>Gain the spell Castle of Stone. Gain +6 to casting Castle of Stone while taunting foes.</t>
+  </si>
+  <si>
+    <t>Castle of Stone</t>
+  </si>
+  <si>
+    <t>6 Earth</t>
+  </si>
+  <si>
+    <t>For 2 turns gain 300 spirit armor. While the spell is active, speed is reduced to 0 and attacks of opportunity become unblockable.</t>
+  </si>
+  <si>
+    <t>Gain +1 enhancement capacity</t>
+  </si>
+  <si>
+    <t>When an ally reacts to you, they gain +2 damage for the round. When you react to allys, they recover 4 spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain the spell Spirit Step. </t>
+  </si>
+  <si>
+    <t>Spirit Step</t>
+  </si>
+  <si>
+    <t>5 Seals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instantly teleport to any known or visible location. </t>
+  </si>
+  <si>
+    <t>If two hand seal spells are completed on a single turn, the second one gains +1 magnitude.</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In place of counterspelling, may intercept the targets attack towards another ally. Must either be next to the target or next to the ally. </t>
+  </si>
+  <si>
+    <t>+ 2 to initiative rolls</t>
+  </si>
+  <si>
+    <t>Attacking a foe before it's turn applies -1 to its next attack. Any ally you attack before gains +2 base damage to its next attack.</t>
+  </si>
+  <si>
+    <t>+ 15% crit if you have the highest initiative at the start of the round</t>
+  </si>
+  <si>
+    <t>First Strike</t>
+  </si>
+  <si>
+    <t>4 Metal</t>
+  </si>
+  <si>
+    <t>Summon a massive bladed pendulum that swings at the target dealing 40 damage. The pendulum remains until the start of next round. At the start of the target's turn, the pendulum strikes again for 40 damage.</t>
+  </si>
+  <si>
+    <t>Give a target an extra turn at the end of the round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+2 to initiative rolls. Gain the spell First Strike. </t>
+  </si>
+  <si>
+    <t>+4 to sources of spirit recovery</t>
   </si>
 </sst>
 </file>
@@ -435,11 +588,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323A4BD3-C367-4F55-AFD6-27C708741604}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,16 +927,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,49 +946,58 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,89 +1007,144 @@
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,47 +1157,47 @@
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,55 +1213,55 @@
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>19</v>
@@ -1054,63 +1271,74 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F50" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F51" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F52" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,174 +1349,261 @@
         <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="F67" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
-        <v>56</v>
+      <c r="F68" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D82" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D83" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="D84" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A118:F118"/>
@@ -1299,14 +1614,6 @@
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A95:F95"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1314,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD8E546-FEBF-4703-B5FC-85F4A1C8F315}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,84 +1637,135 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Skillsets.xlsx
+++ b/Skillsets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D031A7-6C89-41E9-BCF0-C803FB0A6CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8271369-13C2-43F0-BD8E-4FDD20F8DE53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94108416-7DA5-4E31-B1F3-D159934FD6B5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="182">
   <si>
     <t>Hand Seal</t>
   </si>
@@ -388,9 +388,6 @@
     <t>When two hands are free, gain +2 hand seals per turn.</t>
   </si>
   <si>
-    <t>When using the counterspell reaction, can chose to cast a barrier spell in defence instead of countering. Barriers cast this way have +2 to cast checks.</t>
-  </si>
-  <si>
     <t>Exorcism spells have +5ft radius</t>
   </si>
   <si>
@@ -545,6 +542,51 @@
   </si>
   <si>
     <t>+4 to sources of spirit recovery</t>
+  </si>
+  <si>
+    <t>When using the counterspell reaction, can chose to cast a barrier spell in defence instead of countering. Barriers cast this way have +1 to cast checks.</t>
+  </si>
+  <si>
+    <t>Spells that you successfully bolster gain +1 magnitude</t>
+  </si>
+  <si>
+    <t>When bolstering a hand seal spell, +1 to checks. Gain +2 for talisman checks.</t>
+  </si>
+  <si>
+    <t>Gain the ability to bolster channeling</t>
+  </si>
+  <si>
+    <t>When reacting to an ally, both of you gain +1 spirit armor for the round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you crit while bolstering, gain an extra turn at the end of initiative. </t>
+  </si>
+  <si>
+    <t>+2 to talisman checks</t>
+  </si>
+  <si>
+    <t>Add extra damage to talisman spells equal to the magnitude of the spell</t>
+  </si>
+  <si>
+    <t>Boosted talisman spells have an extra 10% chance to crit</t>
+  </si>
+  <si>
+    <t>Boosted spells gain an additional +1 magnitude.</t>
+  </si>
+  <si>
+    <t>Gain the spell Resounding Echo. Resounding Echo is automatically cast time in a combat the first time that you cast a spell of magnitude 10 or greater.</t>
+  </si>
+  <si>
+    <t>Resounding Echo</t>
+  </si>
+  <si>
+    <t>10 Any</t>
+  </si>
+  <si>
+    <t>The target is struck with the same amount of damage as your last hit. The talismans used and damage type are the same as the previous spell. This attack cannot be blocked.</t>
+  </si>
+  <si>
+    <t>Deal +4 additional damage with all Bind spells</t>
   </si>
 </sst>
 </file>
@@ -588,11 +630,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323A4BD3-C367-4F55-AFD6-27C708741604}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,14 +969,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" t="s">
         <v>71</v>
       </c>
@@ -957,6 +999,9 @@
       <c r="D3" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -965,7 +1010,7 @@
       <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -974,28 +1019,28 @@
         <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
         <v>72</v>
       </c>
@@ -1008,30 +1053,53 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>59</v>
@@ -1042,7 +1110,7 @@
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>63</v>
@@ -1053,7 +1121,7 @@
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>64</v>
@@ -1076,14 +1144,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>74</v>
       </c>
@@ -1093,56 +1161,56 @@
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" t="s">
         <v>75</v>
       </c>
@@ -1188,14 +1256,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -1247,14 +1315,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" t="s">
         <v>77</v>
       </c>
@@ -1272,7 +1340,7 @@
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>68</v>
@@ -1297,14 +1365,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" t="s">
         <v>76</v>
       </c>
@@ -1314,7 +1382,7 @@
         <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
@@ -1322,21 +1390,44 @@
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>167</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
       <c r="G63" t="s">
         <v>76</v>
       </c>
@@ -1349,67 +1440,67 @@
         <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
       <c r="G72" t="s">
         <v>76</v>
       </c>
@@ -1427,20 +1518,20 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1449,16 +1540,16 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
       <c r="G79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,7 +1562,7 @@
     </row>
     <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>98</v>
@@ -1493,14 +1584,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
@@ -1510,33 +1601,33 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
@@ -1546,18 +1637,18 @@
         <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
@@ -1567,43 +1658,35 @@
         <v>26</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A118:F118"/>
@@ -1614,6 +1697,14 @@
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A95:F95"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1621,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD8E546-FEBF-4703-B5FC-85F4A1C8F315}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,53 +1810,70 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
